--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,108 +40,120 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>infected</t>
+    <t>ridiculous</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>cut</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -151,154 +163,169 @@
     <t>prices</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>shopping</t>
   </si>
 </sst>
 </file>
@@ -656,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -725,13 +752,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -743,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -767,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -775,13 +802,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -793,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -817,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -825,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8184931506849316</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C5">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D5">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -843,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>55</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5">
+        <v>0.8983050847457628</v>
+      </c>
+      <c r="L5">
         <v>53</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5">
-        <v>0.925</v>
-      </c>
-      <c r="L5">
-        <v>111</v>
-      </c>
       <c r="M5">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -867,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -875,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8157894736842105</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -893,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -917,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -925,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7826086956521739</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -943,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -967,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -975,13 +1002,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -993,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>0.8224543080939948</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L8">
-        <v>315</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>315</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1017,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1025,13 +1052,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1043,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>310</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>310</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1067,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1075,13 +1102,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7567567567567568</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1093,31 +1120,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
+        <v>0.8085106382978723</v>
+      </c>
+      <c r="L10">
+        <v>38</v>
+      </c>
+      <c r="M10">
+        <v>38</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>9</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10">
-        <v>0.80625</v>
-      </c>
-      <c r="L10">
-        <v>129</v>
-      </c>
-      <c r="M10">
-        <v>129</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1125,13 +1152,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1143,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K11">
-        <v>0.8018867924528302</v>
+        <v>0.8046875</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1167,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1175,49 +1202,49 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12">
+        <v>0.8018867924528302</v>
+      </c>
+      <c r="L12">
+        <v>85</v>
+      </c>
+      <c r="M12">
+        <v>85</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>21</v>
-      </c>
-      <c r="D12">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>9</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12">
-        <v>0.796875</v>
-      </c>
-      <c r="L12">
-        <v>102</v>
-      </c>
-      <c r="M12">
-        <v>102</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1225,13 +1252,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6956521739130435</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1246,16 +1273,16 @@
         <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K13">
-        <v>0.7926829268292683</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1267,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1275,13 +1302,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6842105263157895</v>
+        <v>0.68</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1293,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K14">
-        <v>0.7872340425531915</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1317,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1325,13 +1352,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6271186440677966</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1343,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K15">
-        <v>0.7816901408450704</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1367,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1375,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5806451612903226</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1393,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.78125</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1417,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1425,13 +1452,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.575</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1443,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1467,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1475,13 +1502,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5652173913043478</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1493,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1517,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1525,13 +1552,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5490196078431373</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1543,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1567,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1575,13 +1602,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5396825396825397</v>
+        <v>0.5445736434108527</v>
       </c>
       <c r="C20">
-        <v>102</v>
+        <v>281</v>
       </c>
       <c r="D20">
-        <v>102</v>
+        <v>281</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1593,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K20">
-        <v>0.7209302325581395</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1617,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1625,13 +1652,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5333333333333333</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1643,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K21">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1667,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1675,13 +1702,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5251937984496124</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C22">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1693,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K22">
-        <v>0.65</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L22">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="M22">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1717,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1725,13 +1752,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5033557046979866</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C23">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D23">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1743,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K23">
-        <v>0.65</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1767,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1775,13 +1802,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.44</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1793,19 +1820,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K24">
-        <v>0.6169491525423729</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L24">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1817,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>113</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1825,13 +1852,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4375</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1843,19 +1870,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K25">
-        <v>0.6153846153846154</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1867,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1875,13 +1902,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4358974358974359</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1893,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K26">
-        <v>0.606694560669456</v>
+        <v>0.7</v>
       </c>
       <c r="L26">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1917,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1925,7 +1952,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4193548387096774</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C27">
         <v>13</v>
@@ -1943,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1967,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1975,13 +2002,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4102564102564102</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1993,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K28">
-        <v>0.5957446808510638</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L28">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="M28">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2017,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>38</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2025,13 +2052,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3783783783783784</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2043,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K29">
-        <v>0.5925925925925926</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2067,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2075,13 +2102,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.375</v>
+        <v>0.40625</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2093,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K30">
-        <v>0.5833333333333334</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2117,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2125,13 +2152,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3636363636363636</v>
+        <v>0.4</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2143,19 +2170,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K31">
-        <v>0.5714285714285714</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2167,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2175,13 +2202,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3222222222222222</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2193,19 +2220,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K32">
-        <v>0.5714285714285714</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2217,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2225,13 +2252,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3090909090909091</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2243,19 +2270,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K33">
-        <v>0.5142857142857142</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2267,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2275,13 +2302,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.25</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C34">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2293,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K34">
-        <v>0.4831460674157304</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L34">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="M34">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2317,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2325,13 +2352,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2337662337662338</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2343,31 +2370,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K35">
-        <v>0.4814814814814815</v>
+        <v>0.5884353741496599</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2375,13 +2402,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.175</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2393,19 +2420,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K36">
-        <v>0.4642857142857143</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2417,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2425,13 +2452,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1528150134048257</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C37">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2443,19 +2470,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>316</v>
+        <v>37</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K37">
-        <v>0.4285714285714285</v>
+        <v>0.58</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2467,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2475,13 +2502,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.09333333333333334</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C38">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D38">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2493,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K38">
-        <v>0.4</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2517,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2525,31 +2552,31 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01724137931034483</v>
+        <v>0.225</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E39">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>1140</v>
+        <v>62</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K39">
-        <v>0.3939393939393939</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L39">
         <v>13</v>
@@ -2567,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2575,37 +2602,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01354838709677419</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="C40">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E40">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>3058</v>
+        <v>61</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K40">
-        <v>0.3725490196078431</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2617,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2625,37 +2652,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.007022471910112359</v>
+        <v>0.1823056300268097</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="E41">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.6799999999999999</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>2121</v>
+        <v>305</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K41">
-        <v>0.328125</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2667,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2675,37 +2702,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004098360655737705</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E42">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.3100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>3159</v>
+        <v>272</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K42">
-        <v>0.3205128205128205</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2717,15 +2744,39 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="C43">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>21</v>
+      </c>
+      <c r="E43">
+        <v>0.1</v>
+      </c>
+      <c r="F43">
+        <v>0.9</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1140</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K43">
-        <v>0.2876712328767123</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L43">
         <v>21</v>
@@ -2743,21 +2794,45 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.01543498596819457</v>
+      </c>
+      <c r="C44">
+        <v>33</v>
+      </c>
+      <c r="D44">
+        <v>38</v>
+      </c>
+      <c r="E44">
+        <v>0.13</v>
+      </c>
+      <c r="F44">
+        <v>0.87</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>2105</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K44">
-        <v>0.2295081967213115</v>
+        <v>0.40625</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2769,41 +2844,65 @@
         <v>0</v>
       </c>
       <c r="Q44">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.01353528843055108</v>
+      </c>
+      <c r="C45">
+        <v>42</v>
+      </c>
+      <c r="D45">
+        <v>46</v>
+      </c>
+      <c r="E45">
+        <v>0.09</v>
+      </c>
+      <c r="F45">
+        <v>0.91</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>3061</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K45">
+        <v>0.3561643835616438</v>
+      </c>
+      <c r="L45">
+        <v>26</v>
+      </c>
+      <c r="M45">
+        <v>26</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45">
-        <v>0.1481481481481481</v>
-      </c>
-      <c r="L45">
-        <v>16</v>
-      </c>
-      <c r="M45">
-        <v>17</v>
-      </c>
-      <c r="N45">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O45">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K46">
-        <v>0.0972972972972973</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L46">
         <v>18</v>
@@ -2821,21 +2920,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>167</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K47">
-        <v>0.05194805194805195</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2847,21 +2946,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>292</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K48">
-        <v>0.03125</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2873,33 +2972,163 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>403</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="K49">
-        <v>0.009096612296110414</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N49">
-        <v>0.6899999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O49">
-        <v>0.3100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>3159</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K50">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L50">
+        <v>13</v>
+      </c>
+      <c r="M50">
+        <v>13</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K51">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="L51">
+        <v>15</v>
+      </c>
+      <c r="M51">
+        <v>15</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K52">
+        <v>0.04297994269340974</v>
+      </c>
+      <c r="L52">
+        <v>15</v>
+      </c>
+      <c r="M52">
+        <v>15</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K53">
+        <v>0.04220779220779221</v>
+      </c>
+      <c r="L53">
+        <v>13</v>
+      </c>
+      <c r="M53">
+        <v>13</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K54">
+        <v>0.01285669488867984</v>
+      </c>
+      <c r="L54">
+        <v>41</v>
+      </c>
+      <c r="M54">
+        <v>53</v>
+      </c>
+      <c r="N54">
+        <v>0.77</v>
+      </c>
+      <c r="O54">
+        <v>0.23</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>3148</v>
       </c>
     </row>
   </sheetData>
